--- a/data/FOREX_7.xlsx
+++ b/data/FOREX_7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>World Currency Composition of Official Foreign Exchange Reserves</t>
   </si>
@@ -89,6 +89,9 @@
     <t>2021Q3</t>
   </si>
   <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
     <t>Total Foreign Exchange Reserves</t>
   </si>
   <si>
@@ -161,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 2/10/2022 10:19:37 PM</t>
+    <t>Data extracted from http://data.imf.org/ on: 4/5/2022 10:41:08 PM</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="2" ySplit="5" state="frozen" topLeftCell="C6"/>
@@ -588,6 +591,7 @@
     <col min="23" max="23" width="14.710938" customWidth="1"/>
     <col min="24" max="24" width="14.710938" customWidth="1"/>
     <col min="25" max="25" width="14.710938" customWidth="1"/>
+    <col min="26" max="26" width="14.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -616,6 +620,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="24.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -645,6 +650,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="19.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -674,6 +680,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -701,6 +708,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="15.750000" customHeight="1">
       <c r="A5" s="1"/>
@@ -771,89 +779,95 @@
       <c r="X5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="15.750000" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9">
-        <v>10934908.874009792</v>
+        <v>10934908.624718061</v>
       </c>
       <c r="D6" s="10">
-        <v>10977840.974906817</v>
+        <v>10977839.087152479</v>
       </c>
       <c r="E6" s="10">
-        <v>11004394.962953581</v>
+        <v>11004391.272975843</v>
       </c>
       <c r="F6" s="10">
-        <v>10724932.77948424</v>
+        <v>10724924.376122067</v>
       </c>
       <c r="G6" s="10">
-        <v>10911929.485627724</v>
+        <v>10911927.81720251</v>
       </c>
       <c r="H6" s="10">
-        <v>11132300.79160735</v>
+        <v>11132299.365805682</v>
       </c>
       <c r="I6" s="10">
-        <v>11307125.087874878</v>
+        <v>11307125.80732242</v>
       </c>
       <c r="J6" s="10">
-        <v>11456767.405152801</v>
+        <v>11456754.520967852</v>
       </c>
       <c r="K6" s="10">
-        <v>11617442.418319343</v>
+        <v>11617431.831818111</v>
       </c>
       <c r="L6" s="10">
-        <v>11480308.792105481</v>
+        <v>11480296.958073512</v>
       </c>
       <c r="M6" s="10">
-        <v>11410109.270427942</v>
+        <v>11410100.579660261</v>
       </c>
       <c r="N6" s="10">
-        <v>11435766.964206258</v>
+        <v>11435763.453382771</v>
       </c>
       <c r="O6" s="10">
-        <v>11610729.158458842</v>
+        <v>11610756.068331568</v>
       </c>
       <c r="P6" s="10">
-        <v>11738663.965857761</v>
+        <v>11738664.4693994</v>
       </c>
       <c r="Q6" s="10">
-        <v>11657414.861884588</v>
+        <v>11657419.637196656</v>
       </c>
       <c r="R6" s="10">
-        <v>11826169.80302885</v>
+        <v>11826182.6176848</v>
       </c>
       <c r="S6" s="10">
-        <v>11705038.019200349</v>
+        <v>11705061.399071001</v>
       </c>
       <c r="T6" s="10">
-        <v>12015930.190137988</v>
+        <v>12015954.008033833</v>
       </c>
       <c r="U6" s="10">
-        <v>12250974.416206367</v>
+        <v>12250992.575819721</v>
       </c>
       <c r="V6" s="10">
-        <v>12705325.869501524</v>
+        <v>12705668.60099514</v>
       </c>
       <c r="W6" s="10">
-        <v>12583070.288938014</v>
+        <v>12582140.576173013</v>
       </c>
       <c r="X6" s="10">
-        <v>12813742.219693858</v>
+        <v>12812115.488891199</v>
       </c>
       <c r="Y6" s="10">
-        <v>12827445.17155884</v>
+        <v>12831202.7879625</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>12937269.070590256</v>
       </c>
     </row>
     <row r="7" ht="15.750000" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12">
         <v>7763616.5142462524</v>
@@ -895,7 +909,7 @@
         <v>10892142.654493315</v>
       </c>
       <c r="P7" s="13">
-        <v>11016935.350846818</v>
+        <v>11016803.508767638</v>
       </c>
       <c r="Q7" s="13">
         <v>10922515.374389287</v>
@@ -904,31 +918,34 @@
         <v>11071545.128885768</v>
       </c>
       <c r="S7" s="13">
-        <v>10945584.440784534</v>
+        <v>10945584.809154408</v>
       </c>
       <c r="T7" s="13">
-        <v>11257522.509757584</v>
+        <v>11257522.427283987</v>
       </c>
       <c r="U7" s="13">
-        <v>11459203.864018198</v>
+        <v>11459203.935324194</v>
       </c>
       <c r="V7" s="13">
-        <v>11864529.034211423</v>
+        <v>11864528.99316138</v>
       </c>
       <c r="W7" s="13">
-        <v>11730642.337249368</v>
+        <v>11730642.360303083</v>
       </c>
       <c r="X7" s="13">
-        <v>11946273.74150252</v>
+        <v>11946281.741372779</v>
       </c>
       <c r="Y7" s="13">
-        <v>11971228.65675001</v>
+        <v>11970533.752592646</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>12050534.709313976</v>
       </c>
     </row>
     <row r="8" ht="15.750000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15">
         <v>5082418.6283675767</v>
@@ -970,7 +987,7 @@
         <v>6729866.2373817945</v>
       </c>
       <c r="P8" s="16">
-        <v>6754531.1898778286</v>
+        <v>6754399.3423149483</v>
       </c>
       <c r="Q8" s="16">
         <v>6729797.580761319</v>
@@ -982,28 +999,31 @@
         <v>6770172.9161032382</v>
       </c>
       <c r="T8" s="16">
-        <v>6901673.7596662585</v>
+        <v>6901673.7302073687</v>
       </c>
       <c r="U8" s="16">
-        <v>6927226.4167758105</v>
+        <v>6927226.4201443298</v>
       </c>
       <c r="V8" s="16">
-        <v>6990974.5141080543</v>
+        <v>6990974.5014152946</v>
       </c>
       <c r="W8" s="16">
-        <v>6971791.3419755101</v>
+        <v>6971791.3276996473</v>
       </c>
       <c r="X8" s="16">
-        <v>7065048.7471380457</v>
+        <v>7070332.2078911783</v>
       </c>
       <c r="Y8" s="16">
-        <v>7081393.4231850635</v>
+        <v>7087771.50400226</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>7087141.3720035134</v>
       </c>
     </row>
     <row r="9" ht="15.750000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12">
         <v>1517958.9919441622</v>
@@ -1054,31 +1074,34 @@
         <v>2279459.1827044468</v>
       </c>
       <c r="S9" s="13">
-        <v>2197397.9770117304</v>
+        <v>2197398.3453816036</v>
       </c>
       <c r="T9" s="13">
-        <v>2272432.3847389454</v>
+        <v>2272432.3398925886</v>
       </c>
       <c r="U9" s="13">
-        <v>2359639.0897134063</v>
+        <v>2359639.1154876812</v>
       </c>
       <c r="V9" s="13">
-        <v>2526413.7068071719</v>
+        <v>2526413.7077852422</v>
       </c>
       <c r="W9" s="13">
-        <v>2404795.3624180499</v>
+        <v>2404795.3798948838</v>
       </c>
       <c r="X9" s="13">
-        <v>2446823.9794782558</v>
+        <v>2458880.6709457026</v>
       </c>
       <c r="Y9" s="13">
-        <v>2452099.3549488294</v>
+        <v>2462440.6415407169</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>2486880.9443880771</v>
       </c>
     </row>
     <row r="10" ht="15.750000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1135,19 +1158,22 @@
         <v>271601.74827480293</v>
       </c>
       <c r="W10" s="16">
-        <v>293317.90762806719</v>
+        <v>293317.90762804588</v>
       </c>
       <c r="X10" s="16">
-        <v>314240.51969801233</v>
+        <v>314813.5743248848</v>
       </c>
       <c r="Y10" s="16">
-        <v>318989.43212308688</v>
+        <v>320150.24996593391</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>336104.73517710209</v>
       </c>
     </row>
     <row r="11" ht="15.750000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12">
         <v>284140.58226172172</v>
@@ -1201,28 +1227,31 @@
         <v>644366.44765829295</v>
       </c>
       <c r="T11" s="13">
-        <v>643699.37168911879</v>
+        <v>643699.41403730516</v>
       </c>
       <c r="U11" s="13">
-        <v>668187.222556722</v>
+        <v>668187.23725297581</v>
       </c>
       <c r="V11" s="13">
-        <v>715347.56265201315</v>
+        <v>715347.57859817427</v>
       </c>
       <c r="W11" s="13">
-        <v>686295.30660379468</v>
+        <v>686295.29117043386</v>
       </c>
       <c r="X11" s="13">
-        <v>688111.36033251148</v>
+        <v>672197.71101210534</v>
       </c>
       <c r="Y11" s="13">
-        <v>697346.36089004343</v>
+        <v>681422.48126142356</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>671770.75484363455</v>
       </c>
     </row>
     <row r="12" ht="15.750000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="15">
         <v>361235.5460360357</v>
@@ -1276,28 +1305,31 @@
         <v>486044.64582967805</v>
       </c>
       <c r="T12" s="16">
-        <v>504356.13533248915</v>
+        <v>504356.14686813927</v>
       </c>
       <c r="U12" s="16">
-        <v>523642.41326362855</v>
+        <v>523642.41144927533</v>
       </c>
       <c r="V12" s="16">
-        <v>561388.02818687831</v>
+        <v>561388.05321652966</v>
       </c>
       <c r="W12" s="16">
-        <v>554281.18885033787</v>
+        <v>554281.23622337903</v>
       </c>
       <c r="X12" s="16">
-        <v>571526.78990068799</v>
+        <v>560903.23132920847</v>
       </c>
       <c r="Y12" s="16">
-        <v>572760.50641523756</v>
+        <v>561659.18526086037</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>576219.84635003854</v>
       </c>
     </row>
     <row r="13" ht="15.750000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="12">
         <v>133669.61936668589</v>
@@ -1360,19 +1392,22 @@
         <v>216870.64779270973</v>
       </c>
       <c r="W13" s="13">
-        <v>214890.46203629451</v>
+        <v>214890.46203595208</v>
       </c>
       <c r="X13" s="13">
-        <v>220772.81516822334</v>
+        <v>218444.01765278238</v>
       </c>
       <c r="Y13" s="13">
-        <v>217188.85294961793</v>
+        <v>214258.11461546546</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>218016.7642364252</v>
       </c>
     </row>
     <row r="14" ht="15.750000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="15">
         <v>140377.59167741303</v>
@@ -1414,7 +1449,7 @@
         <v>208644.79222581987</v>
       </c>
       <c r="P14" s="16">
-        <v>209849.28451146663</v>
+        <v>209849.28999516671</v>
       </c>
       <c r="Q14" s="16">
         <v>205441.89449428124</v>
@@ -1426,28 +1461,31 @@
         <v>195267.74826364394</v>
       </c>
       <c r="T14" s="16">
-        <v>215466.66108141979</v>
+        <v>215466.64767705885</v>
       </c>
       <c r="U14" s="16">
-        <v>231102.92484305336</v>
+        <v>231102.89492226604</v>
       </c>
       <c r="V14" s="16">
-        <v>246567.15539141567</v>
+        <v>246567.12297935528</v>
       </c>
       <c r="W14" s="16">
-        <v>250007.15957138385</v>
+        <v>250007.18300310968</v>
       </c>
       <c r="X14" s="16">
-        <v>267813.06689281476</v>
+        <v>270007.45967598457</v>
       </c>
       <c r="Y14" s="16">
-        <v>262165.68267280521</v>
+        <v>264291.96680793475</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>286929.95385213743</v>
       </c>
     </row>
     <row r="15" ht="15.750000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="12">
         <v>14817.730513948265</v>
@@ -1501,28 +1539,31 @@
         <v>15589.513238756999</v>
       </c>
       <c r="T15" s="13">
-        <v>17219.466828367171</v>
+        <v>17219.459680220967</v>
       </c>
       <c r="U15" s="13">
-        <v>19300.43341038662</v>
+        <v>19300.444627930126</v>
       </c>
       <c r="V15" s="13">
-        <v>20738.349094606052</v>
+        <v>20738.323775220182</v>
       </c>
       <c r="W15" s="13">
-        <v>19443.618325228792</v>
+        <v>19443.60206916793</v>
       </c>
       <c r="X15" s="13">
-        <v>20245.089656971064</v>
+        <v>23130.550308588383</v>
       </c>
       <c r="Y15" s="13">
-        <v>20419.05750903863</v>
+        <v>23772.735863779926</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>24505.458680178286</v>
       </c>
     </row>
     <row r="16" ht="15.750000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="15">
         <v>228997.82407870842</v>
@@ -1576,178 +1617,187 @@
         <v>246406.07431818571</v>
       </c>
       <c r="T16" s="16">
-        <v>278660.54064911068</v>
+        <v>278660.49914943363</v>
       </c>
       <c r="U16" s="16">
-        <v>283154.07464493852</v>
+        <v>283154.12262948434</v>
       </c>
       <c r="V16" s="16">
-        <v>314627.32190377085</v>
+        <v>314627.30932405364</v>
       </c>
       <c r="W16" s="16">
-        <v>335819.98984070303</v>
+        <v>335819.9705784641</v>
       </c>
       <c r="X16" s="16">
-        <v>351691.37323699635</v>
+        <v>357572.31823234388</v>
       </c>
       <c r="Y16" s="16">
-        <v>348865.98605628737</v>
+        <v>354766.87327427242</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>362964.87978286808</v>
       </c>
     </row>
     <row r="17" ht="15.750000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12">
-        <v>3171292.3597635389</v>
+        <v>3171292.1104718088</v>
       </c>
       <c r="D17" s="13">
-        <v>2923785.0495159384</v>
+        <v>2923783.1617616005</v>
       </c>
       <c r="E17" s="13">
-        <v>2652774.6527443398</v>
+        <v>2652770.9627666036</v>
       </c>
       <c r="F17" s="13">
-        <v>2307087.5390578848</v>
+        <v>2307079.1356957108</v>
       </c>
       <c r="G17" s="13">
-        <v>2079898.7557185255</v>
+        <v>2079897.0872933106</v>
       </c>
       <c r="H17" s="13">
-        <v>1876535.0032852872</v>
+        <v>1876533.5774836191</v>
       </c>
       <c r="I17" s="13">
-        <v>1665479.3060253183</v>
+        <v>1665480.0254728594</v>
       </c>
       <c r="J17" s="13">
-        <v>1444076.4471208632</v>
+        <v>1444063.5629359141</v>
       </c>
       <c r="K17" s="13">
-        <v>1218329.5035287421</v>
+        <v>1218318.9170275116</v>
       </c>
       <c r="L17" s="13">
-        <v>970497.14967627346</v>
+        <v>970485.31564430473</v>
       </c>
       <c r="M17" s="13">
-        <v>704963.97316409566</v>
+        <v>704955.28239641606</v>
       </c>
       <c r="N17" s="13">
-        <v>709544.45538082812</v>
+        <v>709540.94455734175</v>
       </c>
       <c r="O17" s="13">
-        <v>718586.5039655274</v>
+        <v>718613.41383825394</v>
       </c>
       <c r="P17" s="13">
-        <v>721728.61501094338</v>
+        <v>721860.9606317617</v>
       </c>
       <c r="Q17" s="13">
-        <v>734899.48749530083</v>
+        <v>734904.26280736912</v>
       </c>
       <c r="R17" s="13">
-        <v>754624.674143082</v>
+        <v>754637.48879903322</v>
       </c>
       <c r="S17" s="13">
-        <v>759453.57841581444</v>
+        <v>759476.58991659177</v>
       </c>
       <c r="T17" s="13">
-        <v>758407.68038040434</v>
+        <v>758431.58074984374</v>
       </c>
       <c r="U17" s="13">
-        <v>791770.55218816991</v>
+        <v>791788.6404955273</v>
       </c>
       <c r="V17" s="13">
-        <v>840796.83529009961</v>
+        <v>841139.60783375974</v>
       </c>
       <c r="W17" s="13">
-        <v>852427.95168864448</v>
+        <v>851498.21586992964</v>
       </c>
       <c r="X17" s="13">
-        <v>867468.4781913379</v>
+        <v>865833.74751841987</v>
       </c>
       <c r="Y17" s="13">
-        <v>856216.51480883011</v>
+        <v>860669.03536985349</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>886734.36127627932</v>
       </c>
     </row>
     <row r="18" ht="15.750000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="15">
-        <v>70.998456445292362</v>
+        <v>70.998458063900145</v>
       </c>
       <c r="D18" s="16">
-        <v>73.36648384505537</v>
+        <v>73.366496461190195</v>
       </c>
       <c r="E18" s="16">
-        <v>75.893498355203221</v>
+        <v>75.893523803709385</v>
       </c>
       <c r="F18" s="16">
-        <v>78.488559448399343</v>
+        <v>78.488620946995354</v>
       </c>
       <c r="G18" s="16">
-        <v>80.939221074897944</v>
+        <v>80.939233450441449</v>
       </c>
       <c r="H18" s="16">
-        <v>83.143331837565796</v>
+        <v>83.14334248639021</v>
       </c>
       <c r="I18" s="16">
-        <v>85.270532579397354</v>
+        <v>85.27052715382095</v>
       </c>
       <c r="J18" s="16">
-        <v>87.39542843061146</v>
+        <v>87.395526714890963</v>
       </c>
       <c r="K18" s="16">
-        <v>89.512928408342447</v>
+        <v>89.513009977895891</v>
       </c>
       <c r="L18" s="16">
-        <v>91.546419462657283</v>
+        <v>91.546513829837721</v>
       </c>
       <c r="M18" s="16">
-        <v>93.821584382270728</v>
+        <v>93.821655843655975</v>
       </c>
       <c r="N18" s="16">
-        <v>93.795392494428313</v>
+        <v>93.795421289975565</v>
       </c>
       <c r="O18" s="16">
-        <v>93.811013122789007</v>
+        <v>93.810795700046796</v>
       </c>
       <c r="P18" s="16">
-        <v>93.851697117234878</v>
+        <v>93.850569947599027</v>
       </c>
       <c r="Q18" s="16">
-        <v>93.695862279911225</v>
+        <v>93.695823898605951</v>
       </c>
       <c r="R18" s="16">
-        <v>93.61902723610639</v>
+        <v>93.618925792076368</v>
       </c>
       <c r="S18" s="16">
-        <v>93.511737619561373</v>
+        <v>93.511553984869579</v>
       </c>
       <c r="T18" s="16">
-        <v>93.688314858862427</v>
+        <v>93.68812846451678</v>
       </c>
       <c r="U18" s="16">
-        <v>93.537081008505211</v>
+        <v>93.536942940784144</v>
       </c>
       <c r="V18" s="16">
-        <v>93.382327663799728</v>
+        <v>93.37980838121436</v>
       </c>
       <c r="W18" s="16">
-        <v>93.225596518855752</v>
+        <v>93.232485277724336</v>
       </c>
       <c r="X18" s="16">
-        <v>93.230170676774677</v>
+        <v>93.242070380421211</v>
       </c>
       <c r="Y18" s="16">
-        <v>93.325120447934211</v>
+        <v>93.292374459413239</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>93.145892255637975</v>
       </c>
     </row>
     <row r="19" ht="15.750000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12">
         <v>65.464575936244771</v>
@@ -1789,7 +1839,7 @@
         <v>61.786431291418467</v>
       </c>
       <c r="P19" s="13">
-        <v>61.310436839031098</v>
+        <v>61.30997377723503</v>
       </c>
       <c r="Q19" s="13">
         <v>61.613990459936559</v>
@@ -1798,31 +1848,34 @@
         <v>60.747716253482174</v>
       </c>
       <c r="S19" s="13">
-        <v>61.853005225347104</v>
+        <v>61.8530031437056</v>
       </c>
       <c r="T19" s="13">
-        <v>61.307217051390793</v>
+        <v>61.307217238851017</v>
       </c>
       <c r="U19" s="13">
-        <v>60.45120148815262</v>
+        <v>60.451201141384971</v>
       </c>
       <c r="V19" s="13">
-        <v>58.923320883193483</v>
+        <v>58.92332098008135</v>
       </c>
       <c r="W19" s="13">
-        <v>59.432306787134323</v>
+        <v>59.432306548637435</v>
       </c>
       <c r="X19" s="13">
-        <v>59.140187978393442</v>
+        <v>59.184375196886222</v>
       </c>
       <c r="Y19" s="13">
-        <v>59.153438851008829</v>
+        <v>59.210154287958552</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>58.811841490533965</v>
       </c>
     </row>
     <row r="20" ht="15.750000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="15">
         <v>19.552214991025181</v>
@@ -1864,7 +1917,7 @@
         <v>20.280861097951409</v>
       </c>
       <c r="P20" s="16">
-        <v>20.560007298285779</v>
+        <v>20.560253347342385</v>
       </c>
       <c r="Q20" s="16">
         <v>20.260238692507134</v>
@@ -1873,31 +1926,34 @@
         <v>20.588446835277903</v>
       </c>
       <c r="S20" s="16">
-        <v>20.075656890681572</v>
+        <v>20.075659580507711</v>
       </c>
       <c r="T20" s="16">
-        <v>20.185901318600866</v>
+        <v>20.185901068116635</v>
       </c>
       <c r="U20" s="16">
-        <v>20.591649452390431</v>
+        <v>20.591649549178953</v>
       </c>
       <c r="V20" s="16">
-        <v>21.293838967583511</v>
+        <v>21.293839049501642</v>
       </c>
       <c r="W20" s="16">
-        <v>20.500116645632318</v>
+        <v>20.500116754328797</v>
       </c>
       <c r="X20" s="16">
-        <v>20.481901155318003</v>
+        <v>20.582811657873606</v>
       </c>
       <c r="Y20" s="16">
-        <v>20.483272229256158</v>
+        <v>20.570850827828689</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>20.637100380831587</v>
       </c>
     </row>
     <row r="21" ht="15.750000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -1933,7 +1989,7 @@
         <v>1.9487842504070807</v>
       </c>
       <c r="P21" s="13">
-        <v>1.9315425894107778</v>
+        <v>1.9315657048807788</v>
       </c>
       <c r="Q21" s="13">
         <v>1.9576682250305562</v>
@@ -1942,31 +1998,34 @@
         <v>1.9370453250518744</v>
       </c>
       <c r="S21" s="13">
-        <v>2.012973430833159</v>
+        <v>2.0129733630872337</v>
       </c>
       <c r="T21" s="13">
-        <v>2.0757490636184031</v>
+        <v>2.0757490788255231</v>
       </c>
       <c r="U21" s="13">
-        <v>2.1593506402818541</v>
+        <v>2.1593506268450873</v>
       </c>
       <c r="V21" s="13">
-        <v>2.2891911469190056</v>
+        <v>2.2891911548393704</v>
       </c>
       <c r="W21" s="13">
-        <v>2.5004419979344892</v>
+        <v>2.5004419930202992</v>
       </c>
       <c r="X21" s="13">
-        <v>2.630448008288226</v>
+        <v>2.6352431755783181</v>
       </c>
       <c r="Y21" s="13">
-        <v>2.6646340260422958</v>
+        <v>2.6744860052426147</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>2.7891271489996492</v>
       </c>
     </row>
     <row r="22" ht="15.750000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="15">
         <v>3.6598997611528494</v>
@@ -2008,7 +2067,7 @@
         <v>5.3065063234264471</v>
       </c>
       <c r="P22" s="16">
-        <v>5.5053452203452622</v>
+        <v>5.5054111048062015</v>
       </c>
       <c r="Q22" s="16">
         <v>5.5730232943553313</v>
@@ -2017,31 +2076,34 @@
         <v>5.8687636005953978</v>
       </c>
       <c r="S22" s="16">
-        <v>5.8869990099140592</v>
+        <v>5.8869988117891427</v>
       </c>
       <c r="T22" s="16">
-        <v>5.7179487860777991</v>
+        <v>5.7179492041447819</v>
       </c>
       <c r="U22" s="16">
-        <v>5.8310091214523574</v>
+        <v>5.8310092134168139</v>
       </c>
       <c r="V22" s="16">
-        <v>6.0292959003202338</v>
+        <v>6.0292960555829476</v>
       </c>
       <c r="W22" s="16">
-        <v>5.8504495054336383</v>
+        <v>5.8504493623715081</v>
       </c>
       <c r="X22" s="16">
-        <v>5.7600501647802149</v>
+        <v>5.6268362454915728</v>
       </c>
       <c r="Y22" s="16">
-        <v>5.8251862100791367</v>
+        <v>5.6924987251620021</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>5.5746136669306159</v>
       </c>
     </row>
     <row r="23" ht="15.750000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="12">
         <v>4.6529287655201381</v>
@@ -2083,7 +2145,7 @@
         <v>4.5533177307591171</v>
       </c>
       <c r="P23" s="13">
-        <v>4.5171827524274244</v>
+        <v>4.5172368111900809</v>
       </c>
       <c r="Q23" s="13">
         <v>4.5086924685683556</v>
@@ -2092,31 +2154,34 @@
         <v>4.6381808263103119</v>
       </c>
       <c r="S23" s="13">
-        <v>4.4405545309999024</v>
+        <v>4.4405543815545752</v>
       </c>
       <c r="T23" s="13">
-        <v>4.4801699032387701</v>
+        <v>4.4801700385314822</v>
       </c>
       <c r="U23" s="13">
-        <v>4.569622981469605</v>
+        <v>4.5696229372015358</v>
       </c>
       <c r="V23" s="13">
-        <v>4.731650338316113</v>
+        <v>4.731650565649165</v>
       </c>
       <c r="W23" s="13">
-        <v>4.7250710823420023</v>
+        <v>4.7250714768961561</v>
       </c>
       <c r="X23" s="13">
-        <v>4.7841427567087145</v>
+        <v>4.695211811275712</v>
       </c>
       <c r="Y23" s="13">
-        <v>4.7844755357862532</v>
+        <v>4.6920145489687375</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>4.7816952546070226</v>
       </c>
     </row>
     <row r="24" ht="15.750000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="15">
         <v>1.7217442299140084</v>
@@ -2158,7 +2223,7 @@
         <v>1.6751710972809413</v>
       </c>
       <c r="P24" s="16">
-        <v>1.6993912811831424</v>
+        <v>1.6994116184143253</v>
       </c>
       <c r="Q24" s="16">
         <v>1.6753605097775544</v>
@@ -2167,31 +2232,34 @@
         <v>1.696977693105016</v>
       </c>
       <c r="S24" s="16">
-        <v>1.553205428530074</v>
+        <v>1.5532053762574822</v>
       </c>
       <c r="T24" s="16">
-        <v>1.6907474226587029</v>
+        <v>1.6907474350452665</v>
       </c>
       <c r="U24" s="16">
-        <v>1.7410188279119547</v>
+        <v>1.7410188170782979</v>
       </c>
       <c r="V24" s="16">
-        <v>1.827890910522973</v>
+        <v>1.8278909168472868</v>
       </c>
       <c r="W24" s="16">
-        <v>1.8318729346468388</v>
+        <v>1.8318729310438202</v>
       </c>
       <c r="X24" s="16">
-        <v>1.8480475162831491</v>
+        <v>1.8285523678573514</v>
       </c>
       <c r="Y24" s="16">
-        <v>1.8142569921355181</v>
+        <v>1.7898793741679246</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>1.8091874717220464</v>
       </c>
     </row>
     <row r="25" ht="15.750000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="12">
         <v>1.8081469044719027</v>
@@ -2233,7 +2301,7 @@
         <v>1.9155532464473188</v>
       </c>
       <c r="P25" s="13">
-        <v>1.9047881995180858</v>
+        <v>1.9048110445843911</v>
       </c>
       <c r="Q25" s="13">
         <v>1.8809027724144372</v>
@@ -2242,31 +2310,34 @@
         <v>1.8605244300644901</v>
       </c>
       <c r="S25" s="13">
-        <v>1.7839864953766504</v>
+        <v>1.7839864353372017</v>
       </c>
       <c r="T25" s="13">
-        <v>1.913979393731273</v>
+        <v>1.9139792886829963</v>
       </c>
       <c r="U25" s="13">
-        <v>2.0167450338213686</v>
+        <v>2.0167447601649466</v>
       </c>
       <c r="V25" s="13">
-        <v>2.0781874668639451</v>
+        <v>2.0781872008697069</v>
       </c>
       <c r="W25" s="13">
-        <v>2.131231627252955</v>
+        <v>2.1312318228125595</v>
       </c>
       <c r="X25" s="13">
-        <v>2.241812574262434</v>
+        <v>2.2601799080368692</v>
       </c>
       <c r="Y25" s="13">
-        <v>2.1899647077994988</v>
+        <v>2.20785448895036</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>2.3810557852703953</v>
       </c>
     </row>
     <row r="26" ht="15.750000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="15">
         <v>0.19086118546372943</v>
@@ -2308,7 +2379,7 @@
         <v>0.13546738630935326</v>
       </c>
       <c r="P26" s="16">
-        <v>0.13632253967057209</v>
+        <v>0.13632417109179648</v>
       </c>
       <c r="Q26" s="16">
         <v>0.14361579323262955</v>
@@ -2317,31 +2388,34 @@
         <v>0.14961231963350871</v>
       </c>
       <c r="S26" s="16">
-        <v>0.14242741740375817</v>
+        <v>0.1424274126104127</v>
       </c>
       <c r="T26" s="16">
-        <v>0.15295964821249086</v>
+        <v>0.1529595858364669</v>
       </c>
       <c r="U26" s="16">
-        <v>0.16842735009706752</v>
+        <v>0.16842744694013595</v>
       </c>
       <c r="V26" s="16">
-        <v>0.17479285553439944</v>
+        <v>0.17479264273511053</v>
       </c>
       <c r="W26" s="16">
-        <v>0.16575067047682215</v>
+        <v>0.16575053157332442</v>
       </c>
       <c r="X26" s="16">
-        <v>0.16946781979922032</v>
+        <v>0.19362133598843442</v>
       </c>
       <c r="Y26" s="16">
-        <v>0.17056776789177183</v>
+        <v>0.19859378332759051</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0.2033557785716992</v>
       </c>
     </row>
     <row r="27" ht="15.750000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="12">
         <v>2.9496282262074249</v>
@@ -2383,7 +2457,7 @@
         <v>2.3979075759998749</v>
       </c>
       <c r="P27" s="13">
-        <v>2.434983280127863</v>
+        <v>2.4350124204550152</v>
       </c>
       <c r="Q27" s="13">
         <v>2.3865077841774567</v>
@@ -2392,100 +2466,106 @@
         <v>2.5127327164793116</v>
       </c>
       <c r="S27" s="13">
-        <v>2.2511915709137256</v>
+        <v>2.2511914951506515</v>
       </c>
       <c r="T27" s="13">
-        <v>2.4753274124708922</v>
+        <v>2.4753270619658347</v>
       </c>
       <c r="U27" s="13">
-        <v>2.4709751044227417</v>
+        <v>2.4709755077892641</v>
       </c>
       <c r="V27" s="13">
-        <v>2.6518315307463243</v>
+        <v>2.6518314338934341</v>
       </c>
       <c r="W27" s="13">
-        <v>2.8627587491466127</v>
+        <v>2.862758579316091</v>
       </c>
       <c r="X27" s="13">
-        <v>2.9439420261665883</v>
+        <v>2.9931683010119121</v>
       </c>
       <c r="Y27" s="13">
-        <v>2.9142036800005346</v>
+        <v>2.9636679583935428</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>3.012023022533008</v>
       </c>
     </row>
     <row r="28" ht="15.750000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="15">
-        <v>29.001543554707627</v>
+        <v>29.001541936099855</v>
       </c>
       <c r="D28" s="16">
-        <v>26.633516154944637</v>
+        <v>26.633503538809798</v>
       </c>
       <c r="E28" s="16">
-        <v>24.10650164479679</v>
+        <v>24.106476196290615</v>
       </c>
       <c r="F28" s="16">
-        <v>21.511440551600661</v>
+        <v>21.511379053004642</v>
       </c>
       <c r="G28" s="16">
-        <v>19.060778925102046</v>
+        <v>19.060766549558551</v>
       </c>
       <c r="H28" s="16">
-        <v>16.856668162434204</v>
+        <v>16.856657513609797</v>
       </c>
       <c r="I28" s="16">
-        <v>14.729467420602644</v>
+        <v>14.729472846179048</v>
       </c>
       <c r="J28" s="16">
-        <v>12.604571569388542</v>
+        <v>12.604473285109034</v>
       </c>
       <c r="K28" s="16">
-        <v>10.487071591657555</v>
+        <v>10.486990022104107</v>
       </c>
       <c r="L28" s="16">
-        <v>8.4535805373427149</v>
+        <v>8.4534861701622752</v>
       </c>
       <c r="M28" s="16">
-        <v>6.1784156177292742</v>
+        <v>6.1783441563440293</v>
       </c>
       <c r="N28" s="16">
-        <v>6.2046075055716798</v>
+        <v>6.2045787100244283</v>
       </c>
       <c r="O28" s="16">
-        <v>6.1889868772109873</v>
+        <v>6.1892042999531949</v>
       </c>
       <c r="P28" s="16">
-        <v>6.1483028827651225</v>
+        <v>6.1494300524009713</v>
       </c>
       <c r="Q28" s="16">
-        <v>6.3041377200887716</v>
+        <v>6.304176101394054</v>
       </c>
       <c r="R28" s="16">
-        <v>6.3809727638936149</v>
+        <v>6.3810742079236373</v>
       </c>
       <c r="S28" s="16">
-        <v>6.4882623804386226</v>
+        <v>6.4884460151304237</v>
       </c>
       <c r="T28" s="16">
-        <v>6.3116851411375823</v>
+        <v>6.3118715354832293</v>
       </c>
       <c r="U28" s="16">
-        <v>6.4629189914947958</v>
+        <v>6.4630570592158598</v>
       </c>
       <c r="V28" s="16">
-        <v>6.6176723362002772</v>
+        <v>6.6201916187856469</v>
       </c>
       <c r="W28" s="16">
-        <v>6.7744034811442493</v>
+        <v>6.7675147222756724</v>
       </c>
       <c r="X28" s="16">
-        <v>6.7698293232253208</v>
+        <v>6.7579296195787872</v>
       </c>
       <c r="Y28" s="16">
-        <v>6.6748795520657795</v>
+        <v>6.7076255405867631</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>6.8541077443620217</v>
       </c>
     </row>
     <row r="29" ht="13.500000" customHeight="1">
@@ -2514,11 +2594,12 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="15.750000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -2543,11 +2624,12 @@
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
     </row>
     <row r="31" ht="15.750000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -2572,6 +2654,7 @@
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data/FOREX_7.xlsx
+++ b/data/FOREX_7.xlsx
@@ -164,7 +164,7 @@
     <t>Source: Currency Composition of Official Foreign Exchange Reserves (COFER), International Financial Statistics (IFS)</t>
   </si>
   <si>
-    <t>Data extracted from http://data.imf.org/ on: 4/5/2022 10:41:08 PM</t>
+    <t>Data extracted from http://data.imf.org/ on: 4/11/2022 4:39:46 AM</t>
   </si>
 </sst>
 </file>
